--- a/public/cohort/fileExcel/xlsxUIT/OPEN/DU_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/DU_OPEN.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>betekenis kleuren</t>
   </si>
@@ -914,7 +914,7 @@
     <t>mavo?</t>
   </si>
   <si>
-    <t xml:space="preserve">Idioom en grammatica </t>
+    <t>Idioom en grammatica</t>
   </si>
   <si>
     <t xml:space="preserve">Spiekbrief naamvallen </t>
@@ -962,16 +962,16 @@
     <t>MVT/K/4</t>
   </si>
   <si>
+    <t xml:space="preserve">Idioom en grammatica </t>
+  </si>
+  <si>
     <t>H</t>
   </si>
   <si>
-    <t xml:space="preserve">Herhaling basisgrammatica, woordenschat. </t>
+    <t xml:space="preserve">Idioom </t>
   </si>
   <si>
-    <t>Stappenplan grammatica, geen woordenboek DN en ND</t>
-  </si>
-  <si>
-    <t>Kijk-luistertoets</t>
+    <t>Geen woordenboek DN en ND</t>
   </si>
   <si>
     <t>geen woordenboek (DN en ND)</t>
@@ -983,10 +983,31 @@
     <t xml:space="preserve">Stappenplan grammatica,  Spellingscontrole Duits toegestaan. </t>
   </si>
   <si>
-    <t>Woordenschat</t>
+    <t>Woordenboek niet toegestaan (DN en ND)</t>
   </si>
   <si>
-    <t>Woordenboek niet toegestaan (DN en ND)</t>
+    <t>Lees- luisterdossier</t>
+  </si>
+  <si>
+    <t>Goethe- examen B1</t>
+  </si>
+  <si>
+    <t>Geen woordenboek (DN en ND)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herhaling basisgrammatica, woordenschat. </t>
+  </si>
+  <si>
+    <t>Stappenplan grammatica, geen woordenboek DN en ND</t>
+  </si>
+  <si>
+    <t>kies...</t>
+  </si>
+  <si>
+    <t>Kijk-luistertoets</t>
+  </si>
+  <si>
+    <t>Woordenschat</t>
   </si>
   <si>
     <t>Leesvaardigheid</t>
@@ -1001,25 +1022,22 @@
     <t>Bij tt mag een woordenboek Duits - Nederlands en Nederlands - Duits gebruikt worden, tenzij anders staat aangegeven.</t>
   </si>
   <si>
-    <t>Spreekvaardigheid - en gespreksvaardigheid (in tweetallen)</t>
+    <t>Spreekvaardigheid - en gespreksvaardigheid (in twee- en drietallen)</t>
   </si>
   <si>
     <t>C1, C2</t>
   </si>
   <si>
-    <t>Literatuur</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
     <t>Schrijfvaardigheid</t>
   </si>
   <si>
-    <t>Stappenplan grammatica,  tekstverwerker met spellingscontrole Duits</t>
+    <t>Stappenplan grammatica</t>
   </si>
   <si>
     <t>D1, D2</t>
+  </si>
+  <si>
+    <t>Leesvaardigheid+ idioom</t>
   </si>
   <si>
     <t>Woordenboek DN en ND</t>
@@ -1029,6 +1047,21 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>Literatuur (tweetallen)</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>Spreekvaardigheid - en gespreksvaardigheid (in tweetallen)</t>
+  </si>
+  <si>
+    <t>Literatuur</t>
+  </si>
+  <si>
+    <t>Stappenplan grammatica,  tekstverwerker met spellingscontrole Duits</t>
   </si>
   <si>
     <t xml:space="preserve">PW Basisgrammatica </t>
@@ -1055,7 +1088,7 @@
     <t>E</t>
   </si>
   <si>
-    <t>Tekstverwerker met spellingscontrole Duits toegestaan</t>
+    <t xml:space="preserve">Tekstverwerker </t>
   </si>
   <si>
     <t>D</t>
@@ -1070,6 +1103,9 @@
     <t xml:space="preserve">Kijk - en luistervaardigheid </t>
   </si>
   <si>
+    <t>Tekstverwerker met spellingscontrole Duits toegestaan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spreek - en gesprekvaardigheid (deels met partner) </t>
   </si>
   <si>
@@ -1079,10 +1115,13 @@
     <t xml:space="preserve">Idioom en examenidioom </t>
   </si>
   <si>
-    <t>Eindexamen</t>
+    <t xml:space="preserve">PO teksten </t>
   </si>
   <si>
     <t xml:space="preserve">Kijk - en luistertoets </t>
+  </si>
+  <si>
+    <t>Eindexamen</t>
   </si>
 </sst>
 </file>
@@ -2134,7 +2173,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -2280,7 +2319,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2634,7 +2673,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.60224537</v>
+        <v>44385.633298611</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3006,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
@@ -3015,7 +3054,7 @@
         <v>7</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L18" s="45">
         <v>100</v>
@@ -3027,10 +3066,10 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -3111,7 +3150,7 @@
         <v>7</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="L19" s="45">
         <v>100</v>
@@ -3123,10 +3162,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -3198,7 +3237,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -3207,7 +3246,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -3217,7 +3256,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -3262,7 +3301,7 @@
       </c>
       <c r="AB20" s="7">
         <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
@@ -3278,7 +3317,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -3290,7 +3329,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -3305,7 +3344,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -3350,7 +3389,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -3366,7 +3405,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
@@ -3387,7 +3426,7 @@
         <v>7</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L22" s="45">
         <v>100</v>
@@ -3399,7 +3438,7 @@
         <v>3</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
@@ -3472,7 +3511,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="I23" s="45">
         <v>2</v>
@@ -3481,7 +3520,7 @@
         <v>7</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L23" s="45">
         <v>50</v>
@@ -3491,7 +3530,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="P23" s="32"/>
       <c r="R23" s="7">
@@ -3536,7 +3575,7 @@
       </c>
       <c r="AB23" s="7">
         <f>IF(AND(OR($O23=instellingen!$I$3,$O23=instellingen!$I$4),OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="7">
         <f>IF(AND($O23=instellingen!$I$2,$M23=instellingen!$I$3),1,0)</f>
@@ -3552,7 +3591,7 @@
       </c>
       <c r="AF23" s="8">
         <f>SUM(R23:AE23)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -3727,14 +3766,14 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
         <v>10</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L30" s="45">
         <v>30</v>
@@ -3749,7 +3788,7 @@
         <v>11</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -3821,14 +3860,14 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L31" s="45">
         <v>100</v>
@@ -3840,7 +3879,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32"/>
       <c r="R31" s="7">
@@ -3913,7 +3952,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -4001,14 +4040,14 @@
         <v>2</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L33" s="45">
         <v>100</v>
@@ -4023,7 +4062,7 @@
         <v>11</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
@@ -4112,7 +4151,7 @@
         <v>3</v>
       </c>
       <c r="O34" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P34" s="32"/>
       <c r="R34" s="7">
@@ -4632,7 +4671,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -4986,7 +5025,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.60224537</v>
+        <v>44385.633298611</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6013,14 +6052,14 @@
         <v>1</v>
       </c>
       <c r="H30" s="28" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="I30" s="45"/>
       <c r="J30" s="29" t="s">
         <v>10</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L30" s="45">
         <v>30</v>
@@ -6035,7 +6074,7 @@
         <v>11</v>
       </c>
       <c r="P30" s="32" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="R30" s="7">
         <f>IF(OR(AND($G30&lt;&gt;instellingen!$G$2,ISBLANK($H30)),AND($G30=instellingen!$G$2,$H30&lt;&gt;"")),1,0)</f>
@@ -6107,14 +6146,14 @@
         <v>2</v>
       </c>
       <c r="H31" s="28" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="I31" s="45"/>
       <c r="J31" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L31" s="45">
         <v>100</v>
@@ -6126,7 +6165,7 @@
         <v>2</v>
       </c>
       <c r="O31" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P31" s="32"/>
       <c r="R31" s="7">
@@ -6199,7 +6238,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="I32" s="45"/>
       <c r="J32" s="29" t="s">
@@ -6287,14 +6326,14 @@
         <v>2</v>
       </c>
       <c r="H33" s="28" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="I33" s="45"/>
       <c r="J33" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L33" s="45">
         <v>100</v>
@@ -6309,7 +6348,7 @@
         <v>11</v>
       </c>
       <c r="P33" s="32" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="R33" s="7">
         <f>IF(OR(AND($G33&lt;&gt;instellingen!$G$2,ISBLANK($H33)),AND($G33=instellingen!$G$2,$H33&lt;&gt;"")),1,0)</f>
@@ -6398,7 +6437,7 @@
         <v>3</v>
       </c>
       <c r="O34" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P34" s="32"/>
       <c r="R34" s="7">
@@ -7447,7 +7486,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602233796</v>
+        <v>44385.633287037</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -7838,7 +7877,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>74</v>
@@ -8022,7 +8061,7 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>79</v>
@@ -8302,7 +8341,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P23" s="32" t="s">
         <v>87</v>
@@ -9749,7 +9788,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602233796</v>
+        <v>44385.633287037</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -10121,7 +10160,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
@@ -10140,7 +10179,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P18" s="32" t="s">
         <v>74</v>
@@ -10324,7 +10363,7 @@
         <v>2</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
         <v>79</v>
@@ -10604,7 +10643,7 @@
         <v>3</v>
       </c>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P23" s="32" t="s">
         <v>87</v>
@@ -11551,7 +11590,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -11697,7 +11736,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2">
         <v>632</v>
@@ -11707,7 +11746,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -11716,7 +11755,7 @@
         <v>7</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L6" s="45">
         <v>100</v>
@@ -11726,7 +11765,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11771,7 +11810,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -11787,7 +11826,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -11805,7 +11844,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -11817,14 +11856,14 @@
         <v>92</v>
       </c>
       <c r="L7" s="45">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M7" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11869,7 +11908,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -11885,7 +11924,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -11915,14 +11954,14 @@
         <v>94</v>
       </c>
       <c r="L8" s="45">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M8" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -11967,7 +12006,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -11983,7 +12022,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -12002,26 +12041,26 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I9" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L9" s="45">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="M9" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -12066,7 +12105,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -12082,7 +12121,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -12091,7 +12130,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602233796</v>
+        <v>44385.633287037</v>
       </c>
       <c r="D10" s="2">
         <v>636</v>
@@ -12101,30 +12140,24 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I10" s="45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="29" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="K10" s="30"/>
-      <c r="L10" s="45">
-        <v>100</v>
-      </c>
+      <c r="L10" s="45"/>
       <c r="M10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="46">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="32" t="s">
-        <v>98</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="P10" s="32"/>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -12202,22 +12235,26 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I11" s="45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="45"/>
+        <v>7</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="45">
+        <v>50</v>
+      </c>
       <c r="M11" s="27" t="s">
         <v>11</v>
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -12262,7 +12299,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -12278,7 +12315,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -13845,7 +13882,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -13991,7 +14028,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2">
         <v>70</v>
@@ -14001,7 +14038,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -14010,7 +14047,7 @@
         <v>7</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="L6" s="45">
         <v>100</v>
@@ -14020,7 +14057,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -14065,7 +14102,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -14081,7 +14118,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -14099,7 +14136,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -14118,7 +14155,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -14163,7 +14200,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -14179,7 +14216,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -14216,7 +14253,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -14261,7 +14298,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -14277,7 +14314,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -14296,7 +14333,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I9" s="45">
         <v>2</v>
@@ -14305,7 +14342,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L9" s="45">
         <v>100</v>
@@ -14315,7 +14352,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -14360,7 +14397,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -14376,7 +14413,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -14385,7 +14422,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602233796</v>
+        <v>44385.633287037</v>
       </c>
       <c r="D10" s="2">
         <v>74</v>
@@ -14395,7 +14432,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I10" s="45">
         <v>3</v>
@@ -14414,10 +14451,10 @@
         <v>3</v>
       </c>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P10" s="32" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="R10" s="7">
         <f>IF(OR(AND($G10&lt;&gt;instellingen!$G$2,ISBLANK($H10)),AND($G10=instellingen!$G$2,$H10&lt;&gt;"")),1,0)</f>
@@ -14496,7 +14533,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="I11" s="45">
         <v>2</v>
@@ -14511,7 +14548,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -14556,7 +14593,7 @@
       </c>
       <c r="AB11" s="7">
         <f>IF(AND(OR($O11=instellingen!$I$3,$O11=instellingen!$I$4),OR($M11=instellingen!$I$2,$M11=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="7">
         <f>IF(AND($O11=instellingen!$I$2,$M11=instellingen!$I$3),1,0)</f>
@@ -14572,7 +14609,7 @@
       </c>
       <c r="AF11" s="8">
         <f>SUM(R11:AE11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -14646,7 +14683,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="48" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H14" s="48"/>
       <c r="I14" s="48"/>
@@ -14777,14 +14814,14 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
         <v>10</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L18" s="45">
         <v>25</v>
@@ -14799,7 +14836,7 @@
         <v>11</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -14868,17 +14905,21 @@
       </c>
       <c r="E19" s="2"/>
       <c r="G19" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="45"/>
+        <v>7</v>
+      </c>
+      <c r="K19" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="L19" s="45">
+        <v>50</v>
+      </c>
       <c r="M19" s="27" t="s">
         <v>8</v>
       </c>
@@ -14888,9 +14929,7 @@
       <c r="O19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P19" s="32" t="s">
-        <v>104</v>
-      </c>
+      <c r="P19" s="32"/>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -14945,11 +14984,11 @@
       </c>
       <c r="AE19" s="7">
         <f>IF(AND(ISBLANK($P19),$M19=instellingen!$I$3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19" s="8">
         <f>SUM(R19:AE19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:32" customHeight="1" ht="72">
@@ -14961,14 +15000,14 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -14980,10 +15019,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -15055,14 +15094,14 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L21" s="45">
         <v>100</v>
@@ -15074,7 +15113,7 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -15147,14 +15186,14 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L22" s="45">
         <v>60</v>
@@ -15169,7 +15208,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -15233,26 +15272,34 @@
       </c>
     </row>
     <row r="23" spans="1:32" customHeight="1" ht="72">
-      <c r="D23" s="2"/>
+      <c r="D23" s="2">
+        <v>1105</v>
+      </c>
       <c r="E23" s="2"/>
-      <c r="G23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="28"/>
+      <c r="G23" s="27">
+        <v>3</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>117</v>
+      </c>
       <c r="I23" s="45"/>
       <c r="J23" s="29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K23" s="30"/>
       <c r="L23" s="45"/>
       <c r="M23" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="46"/>
+        <v>8</v>
+      </c>
+      <c r="N23" s="46">
+        <v>2</v>
+      </c>
       <c r="O23" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="P23" s="32"/>
+        <v>11</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>118</v>
+      </c>
       <c r="R23" s="7">
         <f>IF(OR(AND($G23&lt;&gt;instellingen!$G$2,ISBLANK($H23)),AND($G23=instellingen!$G$2,$H23&lt;&gt;"")),1,0)</f>
         <v>0</v>
@@ -16341,7 +16388,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -16695,7 +16742,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602233796</v>
+        <v>44385.633287037</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -17067,14 +17114,14 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="I18" s="45"/>
       <c r="J18" s="29" t="s">
         <v>10</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L18" s="45">
         <v>25</v>
@@ -17089,7 +17136,7 @@
         <v>11</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -17161,7 +17208,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="I19" s="45"/>
       <c r="J19" s="29" t="s">
@@ -17179,7 +17226,7 @@
         <v>11</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -17251,14 +17298,14 @@
         <v>2</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I20" s="45"/>
       <c r="J20" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -17270,10 +17317,10 @@
         <v>3</v>
       </c>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="R20" s="7">
         <f>IF(OR(AND($G20&lt;&gt;instellingen!$G$2,ISBLANK($H20)),AND($G20=instellingen!$G$2,$H20&lt;&gt;"")),1,0)</f>
@@ -17345,14 +17392,14 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I21" s="45"/>
       <c r="J21" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K21" s="30" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L21" s="45">
         <v>100</v>
@@ -17364,7 +17411,7 @@
         <v>3</v>
       </c>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -17437,14 +17484,14 @@
         <v>3</v>
       </c>
       <c r="H22" s="28" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I22" s="45"/>
       <c r="J22" s="29" t="s">
         <v>7</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L22" s="45">
         <v>60</v>
@@ -17459,7 +17506,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="R22" s="7">
         <f>IF(OR(AND($G22&lt;&gt;instellingen!$G$2,ISBLANK($H22)),AND($G22=instellingen!$G$2,$H22&lt;&gt;"")),1,0)</f>
@@ -18485,7 +18532,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -18631,7 +18678,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2">
         <v>649</v>
@@ -18641,7 +18688,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -18658,7 +18705,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -18703,7 +18750,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -18719,7 +18766,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -18737,7 +18784,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -18754,7 +18801,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18799,7 +18846,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -18815,7 +18862,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -18833,7 +18880,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -18850,7 +18897,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -18895,7 +18942,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -18911,7 +18958,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -18930,7 +18977,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -18945,7 +18992,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -18990,7 +19037,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -19006,7 +19053,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -19015,7 +19062,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602233796</v>
+        <v>44385.633287037</v>
       </c>
       <c r="D10" s="2">
         <v>653</v>
@@ -19025,7 +19072,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -19042,7 +19089,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -19087,7 +19134,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -19103,7 +19150,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -19122,7 +19169,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -19131,7 +19178,7 @@
         <v>7</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L11" s="45">
         <v>100</v>
@@ -19143,7 +19190,7 @@
         <v>3</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -20773,7 +20820,7 @@
       </c>
       <c r="F2" s="43">
         <f>SUM(AF6:AF35)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G2" s="49" t="str">
         <f>IF(B14&gt;6,"verouderd PTA",CONCATENATE("Dit is het programma van de huidige ",B6,B14," (cohort ",B7," - ",B9,")"))</f>
@@ -20919,7 +20966,7 @@
         <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2">
         <v>81</v>
@@ -20929,7 +20976,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -20946,7 +20993,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -20991,7 +21038,7 @@
       </c>
       <c r="AB6" s="7">
         <f>IF(AND(OR($O6=instellingen!$I$3,$O6=instellingen!$I$4),OR($M6=instellingen!$I$2,$M6=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
         <f>IF(AND($O6=instellingen!$I$2,$M6=instellingen!$I$3),1,0)</f>
@@ -21007,7 +21054,7 @@
       </c>
       <c r="AF6" s="8">
         <f>SUM(R6:AE6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" customHeight="1" ht="72">
@@ -21025,7 +21072,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="28" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="I7" s="45">
         <v>2</v>
@@ -21042,7 +21089,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -21087,7 +21134,7 @@
       </c>
       <c r="AB7" s="7">
         <f>IF(AND(OR($O7=instellingen!$I$3,$O7=instellingen!$I$4),OR($M7=instellingen!$I$2,$M7=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
         <f>IF(AND($O7=instellingen!$I$2,$M7=instellingen!$I$3),1,0)</f>
@@ -21103,7 +21150,7 @@
       </c>
       <c r="AF7" s="8">
         <f>SUM(R7:AE7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" customHeight="1" ht="72">
@@ -21121,7 +21168,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -21138,7 +21185,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -21183,7 +21230,7 @@
       </c>
       <c r="AB8" s="7">
         <f>IF(AND(OR($O8=instellingen!$I$3,$O8=instellingen!$I$4),OR($M8=instellingen!$I$2,$M8=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC8" s="7">
         <f>IF(AND($O8=instellingen!$I$2,$M8=instellingen!$I$3),1,0)</f>
@@ -21199,7 +21246,7 @@
       </c>
       <c r="AF8" s="8">
         <f>SUM(R8:AE8)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:32" customHeight="1" ht="72">
@@ -21218,7 +21265,7 @@
         <v>3</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="I9" s="45">
         <v>3</v>
@@ -21233,7 +21280,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -21278,7 +21325,7 @@
       </c>
       <c r="AB9" s="7">
         <f>IF(AND(OR($O9=instellingen!$I$3,$O9=instellingen!$I$4),OR($M9=instellingen!$I$2,$M9=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="7">
         <f>IF(AND($O9=instellingen!$I$2,$M9=instellingen!$I$3),1,0)</f>
@@ -21294,7 +21341,7 @@
       </c>
       <c r="AF9" s="8">
         <f>SUM(R9:AE9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:32" customHeight="1" ht="72">
@@ -21303,7 +21350,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44379.602233796</v>
+        <v>44385.633298611</v>
       </c>
       <c r="D10" s="2">
         <v>85</v>
@@ -21313,7 +21360,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -21330,7 +21377,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -21375,7 +21422,7 @@
       </c>
       <c r="AB10" s="7">
         <f>IF(AND(OR($O10=instellingen!$I$3,$O10=instellingen!$I$4),OR($M10=instellingen!$I$2,$M10=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="7">
         <f>IF(AND($O10=instellingen!$I$2,$M10=instellingen!$I$3),1,0)</f>
@@ -21391,7 +21438,7 @@
       </c>
       <c r="AF10" s="8">
         <f>SUM(R10:AE10)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:32" customHeight="1" ht="72">
@@ -21410,7 +21457,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -21419,7 +21466,7 @@
         <v>7</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L11" s="45">
         <v>100</v>
@@ -21431,7 +21478,7 @@
         <v>3</v>
       </c>
       <c r="O11" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -21695,19 +21742,19 @@
         <v>1</v>
       </c>
       <c r="H18" s="28" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I18" s="45">
         <v>2</v>
       </c>
       <c r="J18" s="29" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L18" s="45">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="M18" s="27" t="s">
         <v>8</v>
@@ -21719,7 +21766,7 @@
         <v>11</v>
       </c>
       <c r="P18" s="32" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="R18" s="7">
         <f>IF(OR(AND($G18&lt;&gt;instellingen!$G$2,ISBLANK($H18)),AND($G18=instellingen!$G$2,$H18&lt;&gt;"")),1,0)</f>
@@ -21800,7 +21847,7 @@
         <v>7</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="L19" s="45">
         <v>100</v>
@@ -21812,10 +21859,10 @@
         <v>2</v>
       </c>
       <c r="O19" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P19" s="32" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="R19" s="7">
         <f>IF(OR(AND($G19&lt;&gt;instellingen!$G$2,ISBLANK($H19)),AND($G19=instellingen!$G$2,$H19&lt;&gt;"")),1,0)</f>
@@ -21887,7 +21934,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="28" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="I20" s="45">
         <v>2</v>
@@ -21896,7 +21943,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -21906,7 +21953,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -21951,7 +21998,7 @@
       </c>
       <c r="AB20" s="7">
         <f>IF(AND(OR($O20=instellingen!$I$3,$O20=instellingen!$I$4),OR($M20=instellingen!$I$2,$M20=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" s="7">
         <f>IF(AND($O20=instellingen!$I$2,$M20=instellingen!$I$3),1,0)</f>
@@ -21967,7 +22014,7 @@
       </c>
       <c r="AF20" s="8">
         <f>SUM(R20:AE20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:32" customHeight="1" ht="72">
@@ -21979,7 +22026,7 @@
         <v>3</v>
       </c>
       <c r="H21" s="28" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="I21" s="45">
         <v>3</v>
@@ -21994,7 +22041,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -22039,7 +22086,7 @@
       </c>
       <c r="AB21" s="7">
         <f>IF(AND(OR($O21=instellingen!$I$3,$O21=instellingen!$I$4),OR($M21=instellingen!$I$2,$M21=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="7">
         <f>IF(AND($O21=instellingen!$I$2,$M21=instellingen!$I$3),1,0)</f>
@@ -22055,7 +22102,7 @@
       </c>
       <c r="AF21" s="8">
         <f>SUM(R21:AE21)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:32" customHeight="1" ht="72">
@@ -22076,7 +22123,7 @@
         <v>7</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="L22" s="45">
         <v>100</v>
@@ -22088,7 +22135,7 @@
         <v>3</v>
       </c>
       <c r="O22" s="31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P22" s="32"/>
       <c r="R22" s="7">
@@ -22161,7 +22208,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="28" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="I23" s="45">
         <v>2</v>
@@ -22170,7 +22217,7 @@
         <v>7</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L23" s="45">
         <v>50</v>
@@ -22180,7 +22227,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P23" s="32"/>
       <c r="R23" s="7">
@@ -22225,7 +22272,7 @@
       </c>
       <c r="AB23" s="7">
         <f>IF(AND(OR($O23=instellingen!$I$3,$O23=instellingen!$I$4),OR($M23=instellingen!$I$2,$M23=instellingen!$I$4)),1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="7">
         <f>IF(AND($O23=instellingen!$I$2,$M23=instellingen!$I$3),1,0)</f>
@@ -22241,7 +22288,7 @@
       </c>
       <c r="AF23" s="8">
         <f>SUM(R23:AE23)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:32">

--- a/public/cohort/fileExcel/xlsxUIT/OPEN/DU_OPEN.xlsx
+++ b/public/cohort/fileExcel/xlsxUIT/OPEN/DU_OPEN.xlsx
@@ -974,6 +974,9 @@
     <t>Geen woordenboek DN en ND</t>
   </si>
   <si>
+    <t>kies...</t>
+  </si>
+  <si>
     <t>geen woordenboek (DN en ND)</t>
   </si>
   <si>
@@ -999,9 +1002,6 @@
   </si>
   <si>
     <t>Stappenplan grammatica, geen woordenboek DN en ND</t>
-  </si>
-  <si>
-    <t>kies...</t>
   </si>
   <si>
     <t>Kijk-luistertoets</t>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633298611</v>
+        <v>44387.766018519</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -3054,7 +3054,7 @@
         <v>7</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L18" s="45">
         <v>100</v>
@@ -3246,7 +3246,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -3520,7 +3520,7 @@
         <v>7</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L23" s="45">
         <v>50</v>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P23" s="32"/>
       <c r="R23" s="7">
@@ -3773,7 +3773,7 @@
         <v>10</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L30" s="45">
         <v>30</v>
@@ -3867,7 +3867,7 @@
         <v>7</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L31" s="45">
         <v>100</v>
@@ -4047,7 +4047,7 @@
         <v>7</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L33" s="45">
         <v>100</v>
@@ -5025,7 +5025,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633298611</v>
+        <v>44387.766018519</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -6059,7 +6059,7 @@
         <v>10</v>
       </c>
       <c r="K30" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L30" s="45">
         <v>30</v>
@@ -6153,7 +6153,7 @@
         <v>7</v>
       </c>
       <c r="K31" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L31" s="45">
         <v>100</v>
@@ -6333,7 +6333,7 @@
         <v>7</v>
       </c>
       <c r="K33" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L33" s="45">
         <v>100</v>
@@ -7486,7 +7486,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633287037</v>
+        <v>44387.766018519</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -9788,7 +9788,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633287037</v>
+        <v>44387.766018519</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -11765,7 +11765,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -11853,7 +11853,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L7" s="45">
         <v>100</v>
@@ -11863,7 +11863,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -11942,7 +11942,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -11951,7 +11951,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" s="45">
         <v>50</v>
@@ -11961,7 +11961,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -12050,7 +12050,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" s="45">
         <v>20</v>
@@ -12060,7 +12060,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -12130,7 +12130,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633287037</v>
+        <v>44387.766018519</v>
       </c>
       <c r="D10" s="2">
         <v>636</v>
@@ -12140,7 +12140,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I10" s="45">
         <v>2</v>
@@ -12155,7 +12155,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -12235,7 +12235,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I11" s="45">
         <v>3</v>
@@ -12244,7 +12244,7 @@
         <v>7</v>
       </c>
       <c r="K11" s="30" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L11" s="45">
         <v>50</v>
@@ -12254,7 +12254,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -14038,7 +14038,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I6" s="45">
         <v>2</v>
@@ -14047,7 +14047,7 @@
         <v>7</v>
       </c>
       <c r="K6" s="30" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L6" s="45">
         <v>100</v>
@@ -14057,7 +14057,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -14145,7 +14145,7 @@
         <v>7</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L7" s="45">
         <v>50</v>
@@ -14155,7 +14155,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -14234,7 +14234,7 @@
         <v>2</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I8" s="45">
         <v>2</v>
@@ -14243,7 +14243,7 @@
         <v>7</v>
       </c>
       <c r="K8" s="30" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" s="45">
         <v>100</v>
@@ -14253,7 +14253,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -14342,7 +14342,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" s="45">
         <v>100</v>
@@ -14352,7 +14352,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -14422,7 +14422,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633287037</v>
+        <v>44387.766018519</v>
       </c>
       <c r="D10" s="2">
         <v>74</v>
@@ -14548,7 +14548,7 @@
       </c>
       <c r="N11" s="46"/>
       <c r="O11" s="31" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P11" s="32"/>
       <c r="R11" s="7">
@@ -14821,7 +14821,7 @@
         <v>10</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L18" s="45">
         <v>25</v>
@@ -14915,7 +14915,7 @@
         <v>7</v>
       </c>
       <c r="K19" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L19" s="45">
         <v>50</v>
@@ -15193,7 +15193,7 @@
         <v>7</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L22" s="45">
         <v>60</v>
@@ -16742,7 +16742,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633287037</v>
+        <v>44387.766018519</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -17121,7 +17121,7 @@
         <v>10</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L18" s="45">
         <v>25</v>
@@ -17491,7 +17491,7 @@
         <v>7</v>
       </c>
       <c r="K22" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L22" s="45">
         <v>60</v>
@@ -18705,7 +18705,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -18801,7 +18801,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -18897,7 +18897,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -18992,7 +18992,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -19062,7 +19062,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633287037</v>
+        <v>44387.766018519</v>
       </c>
       <c r="D10" s="2">
         <v>653</v>
@@ -19089,7 +19089,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -20993,7 +20993,7 @@
       </c>
       <c r="N6" s="46"/>
       <c r="O6" s="31" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P6" s="32"/>
       <c r="R6" s="7">
@@ -21089,7 +21089,7 @@
       </c>
       <c r="N7" s="46"/>
       <c r="O7" s="31" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P7" s="32"/>
       <c r="R7" s="7">
@@ -21185,7 +21185,7 @@
       </c>
       <c r="N8" s="46"/>
       <c r="O8" s="31" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P8" s="32"/>
       <c r="R8" s="7">
@@ -21280,7 +21280,7 @@
       </c>
       <c r="N9" s="46"/>
       <c r="O9" s="31" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P9" s="32"/>
       <c r="R9" s="7">
@@ -21350,7 +21350,7 @@
       </c>
       <c r="B10" s="6">
         <f>NOW()</f>
-        <v>44385.633298611</v>
+        <v>44387.766018519</v>
       </c>
       <c r="D10" s="2">
         <v>85</v>
@@ -21377,7 +21377,7 @@
       </c>
       <c r="N10" s="46"/>
       <c r="O10" s="31" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="P10" s="32"/>
       <c r="R10" s="7">
@@ -21751,7 +21751,7 @@
         <v>10</v>
       </c>
       <c r="K18" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L18" s="45">
         <v>30</v>
@@ -21943,7 +21943,7 @@
         <v>7</v>
       </c>
       <c r="K20" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L20" s="45">
         <v>100</v>
@@ -21953,7 +21953,7 @@
       </c>
       <c r="N20" s="46"/>
       <c r="O20" s="31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="P20" s="32"/>
       <c r="R20" s="7">
@@ -22041,7 +22041,7 @@
       </c>
       <c r="N21" s="46"/>
       <c r="O21" s="31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="P21" s="32"/>
       <c r="R21" s="7">
@@ -22217,7 +22217,7 @@
         <v>7</v>
       </c>
       <c r="K23" s="30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L23" s="45">
         <v>50</v>
@@ -22227,7 +22227,7 @@
       </c>
       <c r="N23" s="46"/>
       <c r="O23" s="31" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="P23" s="32"/>
       <c r="R23" s="7">
